--- a/Output.xlsx
+++ b/Output.xlsx
@@ -400,7 +400,11 @@
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:5"/>
+    <x:row r="2" spans="1:5">
+      <x:c r="A2" s="1" t="s"/>
+      <x:c r="B2" s="1" t="s"/>
+      <x:c r="C2" s="1" t="s"/>
+    </x:row>
     <x:row r="3" spans="1:5">
       <x:c r="A3" s="1" t="s">
         <x:v>3</x:v>
